--- a/dataFiles/Raw data/Experiment 2/expt2_social.xlsx
+++ b/dataFiles/Raw data/Experiment 2/expt2_social.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjern/Desktop/social-prediction/dataFiles/Raw data/Experiment 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADEA5BD-27D3-1448-917F-CF2A5D4DB13D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD43F4E-FB0A-B842-9E4F-4F37EC225742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="500" windowWidth="30420" windowHeight="20840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="500" windowWidth="30420" windowHeight="20840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full data" sheetId="1" r:id="rId1"/>
@@ -3108,8 +3108,8 @@
   </sheetPr>
   <dimension ref="A1:BO127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D76" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -34527,8 +34527,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="F88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I103" sqref="I2:I103"/>
+    <sheetView topLeftCell="F2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -43548,7 +43548,7 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I103" sqref="I2:I103"/>
     </sheetView>
   </sheetViews>
@@ -52540,7 +52540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD9E2DB-7480-2A4A-B161-F1701A132BB2}">
   <dimension ref="A1:B409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A382" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
